--- a/meme_emoji_rust.xlsx
+++ b/meme_emoji_rust.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meme\meme_emoji_rust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B72BBE7-13C1-46C4-B45A-2D175BD44F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD32B3F-F27D-43A9-8232-C032C09D94DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10150" yWindow="4850" windowWidth="19830" windowHeight="15330" xr2:uid="{BCF1C2CB-4E23-48BD-A859-65426018A363}"/>
+    <workbookView xWindow="9210" yWindow="0" windowWidth="25580" windowHeight="20970" activeTab="1" xr2:uid="{BCF1C2CB-4E23-48BD-A859-65426018A363}"/>
   </bookViews>
   <sheets>
     <sheet name="meme_emoji_rust" sheetId="1" r:id="rId1"/>
+    <sheet name="Bug|优化计划" sheetId="2" r:id="rId2"/>
+    <sheet name="表情增加计划" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bug|优化计划'!$A$1:$B$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">表情增加计划!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="221">
   <si>
     <t>Progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,12 +652,521 @@
     <t>R插件群友狗哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字体改成白色，头像向左旋转15度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最底层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. aircraft_cup_air_play (空气玩法)</t>
+  </si>
+  <si>
+    <t>2. aircraft_cup_cleaning_liquid (清洗液)</t>
+  </si>
+  <si>
+    <t>表情名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. aircraft_cup_commemorative_edition_saint_sister (纪念版圣修女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最底层，无文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. aircraft_cup_hoshino_alice (拉拉队偶像)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最底层，无文字
+新增啦啦队偶像名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. aircraft_cup_idol_heartbeat (偶像心跳)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. aircraft_cup_jissbon (杰士邦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. aircraft_cup_limited_edition_saint_sister (纯洁臀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. aircraft_cup_liuli_zi (琉璃子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. aircraft_cup_pure_buttocks (纯洁臀)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. aircraft_cup_selena (魔女之森)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. aircraft_cup_saint_sister (圣修女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. aircraft_cup_summer_liuli_zi (夏日琉璃子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. aircraft_cup_taimanin_asgi (对魔忍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. all_the_days (一生一世)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要改成圆形
+单独艾特一个人无法触发
+引用图片无法触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. atri_like (亚托莉喜欢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. begged_me (求我)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug/改进计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要改成圆形，旋转15°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. congyu_dislike (丛雨讨厌)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材需要更新优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18. deer_help (帮鹿/帮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🦌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材需要更新优化；头像旋转角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>19. deer_se (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🦌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/鹿)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材需要更新优化；延申脖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. dinosaur_head (恐龙头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最底层；头像改成方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21. dog_face (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加关键词狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22. fbi_photo (fbi/FBI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应慢；需要看控制台日志输出定位问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24. ice_tea_head (冰红茶)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最顶层；头像需要改成圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. ikun_durian_head (榴莲坤头)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. hitachi_mako_together (和她在一起)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. ikun_head (小黑子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. kfc_head (KFC/kfc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材重做；头像需要改成圆形；头像坐标重定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. kun_like (坤坤喜欢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. kurogames_mp (鸣批/鸣P/鸣p/鸣潮玩家/鸣潮男)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. kurogames_songlun (松伦哥指/潮批)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最顶层；头像需要改成圆形；增加关键词“松伦指”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>31. mahiro_fuck (真寻中指/中指/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🖕🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要改成圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>32. mi_monkey (米猴/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要位置于最顶层；头像需要改成圆形，旋转15°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. mihoyo_funina_death_penalty (死刑)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. mihoyo_funina_square_head (芙芙方形头像)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. mihoyo_funina_round_head (芙芙圆形头像)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像需要改成圆形；增加关键词“芙宁娜圆形头像”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. mihoyo_genshin_impact_op (OP/op/Op/oP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. mihoyo_genshin_impact_players (原批/原神玩家)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38. miss_in_my_sleep (睡梦中想念)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. murasame_blackboard (丛雨黑板)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加引用字体文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. murasame_husband (丛雨老公)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. murasame_like (丛雨喜欢)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素材优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. s_ninja (S忍/s忍)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. spend_christmas (一起圣诞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44. swimsuit_group_photo (泳衣合影)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. together_two (在一起)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少图片资源：together_two/0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. torture_yourself (折磨自己)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像1要改到最底层；头像2改为圆形头像
+改关键词和添加文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47. xinxi_news (新喜报)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无问题；增加引用字体文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48. youzi_kitchen (柚子厨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. youzi_question_mark (震惊柚子厨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体改成黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像突出偏移；和限定版圣修女重复；应该改为圣修女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像突出偏移；和限定版圣修女重复；移除圣修女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加表情计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KaMmySuma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⭐️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>契约;卖身契</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/anyliew/meme_emoji_rust/issues/1
+https://www.bilibili.com/opus/1063473420517244968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲比说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲比表情包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,13 +1211,90 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -714,12 +1306,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,9 +1333,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0822836-DB31-4795-9D1C-1260133F7EA4}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1126,6 +1752,9 @@
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1139,6 +1768,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1884,4 +2516,492 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAC6721-8174-4F5C-941E-82837505E5D5}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.25" customWidth="1"/>
+    <col min="2" max="2" width="59.9140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B50" xr:uid="{1AAC6721-8174-4F5C-941E-82837505E5D5}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900BF9C9-EBAB-47C6-893F-B7C61A9F9FEC}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3410586885</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{900BF9C9-EBAB-47C6-893F-B7C61A9F9FEC}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://github.com/anyliew/meme_emoji_rust/issues/1_x000a_" xr:uid="{B9BF2539-7961-41EE-819B-CCD631128234}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>